--- a/trunk/Docs/List.xlsx
+++ b/trunk/Docs/List.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="list" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Phác đồ</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>kéo giao diện</t>
   </si>
 </sst>
 </file>
@@ -150,9 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,13 +804,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/Docs/List.xlsx
+++ b/trunk/Docs/List.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="list" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ReferenceList" sheetId="4" r:id="rId3"/>
+    <sheet name="Medicine Planning" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -115,13 +116,120 @@
   </si>
   <si>
     <t>kéo giao diện</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Tên Control</t>
+  </si>
+  <si>
+    <t>cboClinic</t>
+  </si>
+  <si>
+    <t>Khởi tạo</t>
+  </si>
+  <si>
+    <t>cboYear</t>
+  </si>
+  <si>
+    <t>cboMonth</t>
+  </si>
+  <si>
+    <t>grdPlanning</t>
+  </si>
+  <si>
+    <t>Control Type</t>
+  </si>
+  <si>
+    <t>TextBox</t>
+  </si>
+  <si>
+    <t>IntegerBox</t>
+  </si>
+  <si>
+    <t>ComboBox</t>
+  </si>
+  <si>
+    <t>ListBox</t>
+  </si>
+  <si>
+    <t>DataGridView</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>Botton</t>
+  </si>
+  <si>
+    <t>Liệt kê các trung tâm có trong danh sách</t>
+  </si>
+  <si>
+    <t>Liệt kê các năm có dự trù</t>
+  </si>
+  <si>
+    <t>liệt kê 12 tháng trong năm</t>
+  </si>
+  <si>
+    <t>Danh sách các dự trù</t>
+  </si>
+  <si>
+    <t>- Giá trị của phòng khám hiện tại
+- Nếu là trung tâm thì cho phép thay đổi còn không thì disable</t>
+  </si>
+  <si>
+    <t>- Lấy năm hiện tại</t>
+  </si>
+  <si>
+    <t>- Lấy tháng hiện tại</t>
+  </si>
+  <si>
+    <t>Thay đổi dữ liệu</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Giá trị</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Đang tạo</t>
+  </si>
+  <si>
+    <t>Đợi duyệt</t>
+  </si>
+  <si>
+    <t>Đã duyệt</t>
+  </si>
+  <si>
+    <t>Yêu cầu sửa lại</t>
+  </si>
+  <si>
+    <t>Đã sửa đợi duyệt lại</t>
+  </si>
+  <si>
+    <t>Đang sửa</t>
+  </si>
+  <si>
+    <t>1. Trạng thái dự trù</t>
+  </si>
+  <si>
+    <t>- Lấy dữ liệu theo điều kiện trên
+- Trạng thái của dự trù được lấy trong list 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +237,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +263,28 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="270">
+        <stop position="0">
+          <color rgb="FF0070C0"/>
+        </stop>
+        <stop position="1">
+          <color theme="3" tint="-0.25098422193060094"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,11 +301,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +331,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502812</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1885950"/>
+          <a:ext cx="10494537" cy="8067675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -697,15 +895,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="percent" val="$D$2"/>
+        <cfvo type="percent" val="100"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{345EA5B1-C5C3-4A21-9C4A-1ED004F55778}</x14:id>
+          <x14:id>{7D8CFE8E-4E96-4909-B316-0AF49BDFBE46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E8C7E30-DAC7-4469-9965-FBC943BFE355}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -721,27 +931,15 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
-        <cfvo type="percent" val="100"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0E8C7E30-DAC7-4469-9965-FBC943BFE355}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="percent" val="$D$2"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7D8CFE8E-4E96-4909-B316-0AF49BDFBE46}</x14:id>
+          <x14:id>{345EA5B1-C5C3-4A21-9C4A-1ED004F55778}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -752,10 +950,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{345EA5B1-C5C3-4A21-9C4A-1ED004F55778}">
+          <x14:cfRule type="dataBar" id="{7D8CFE8E-4E96-4909-B316-0AF49BDFBE46}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>$D$2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0E8C7E30-DAC7-4469-9965-FBC943BFE355}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
@@ -772,24 +984,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0E8C7E30-DAC7-4469-9965-FBC943BFE355}">
+          <x14:cfRule type="dataBar" id="{345EA5B1-C5C3-4A21-9C4A-1ED004F55778}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7D8CFE8E-4E96-4909-B316-0AF49BDFBE46}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>$D$2</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>100</xm:f>
-              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
@@ -806,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,16 +1024,16 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -850,12 +1048,254 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>ReferenceList!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/trunk/Docs/List.xlsx
+++ b/trunk/Docs/List.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="list" sheetId="2" r:id="rId2"/>
     <sheet name="ReferenceList" sheetId="4" r:id="rId3"/>
     <sheet name="Medicine Planning" sheetId="3" r:id="rId4"/>
+    <sheet name="Medicine Planning Detail" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -200,22 +201,7 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>Đang tạo</t>
-  </si>
-  <si>
-    <t>Đợi duyệt</t>
-  </si>
-  <si>
     <t>Đã duyệt</t>
-  </si>
-  <si>
-    <t>Yêu cầu sửa lại</t>
-  </si>
-  <si>
-    <t>Đã sửa đợi duyệt lại</t>
-  </si>
-  <si>
-    <t>Đang sửa</t>
   </si>
   <si>
     <t>1. Trạng thái dự trù</t>
@@ -223,6 +209,48 @@
   <si>
     <t>- Lấy dữ liệu theo điều kiện trên
 - Trạng thái của dự trù được lấy trong list 1</t>
+  </si>
+  <si>
+    <t>txtDate</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Cobomo</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Require change</t>
+  </si>
+  <si>
+    <t>Draft -&gt; Waiting -&gt; Require chane-&gt; Editing-&gt;Waiting-&gt;Approved</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Tạo mới</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Không duyệt</t>
+  </si>
+  <si>
+    <t>Đã sửa lại</t>
+  </si>
+  <si>
+    <t>UsedInLastMonth</t>
+  </si>
+  <si>
+    <t>Lấy tông thuốc trong bảng Delivery</t>
+  </si>
+  <si>
+    <t>UsedInThisMonth</t>
   </si>
 </sst>
 </file>
@@ -305,7 +333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -314,8 +341,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,6 +393,49 @@
         <a:xfrm>
           <a:off x="0" y="1885950"/>
           <a:ext cx="10494537" cy="8067675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1113462</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="7704762" cy="4542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -665,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1024,10 +1095,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -1048,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,106 +1132,105 @@
     <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1176,108 +1246,108 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1298,4 +1368,74 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/Docs/List.xlsx
+++ b/trunk/Docs/List.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -217,9 +217,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>Cobomo</t>
-  </si>
-  <si>
     <t>Approved</t>
   </si>
   <si>
@@ -244,13 +241,67 @@
     <t>Đã sửa lại</t>
   </si>
   <si>
-    <t>UsedInLastMonth</t>
-  </si>
-  <si>
     <t>Lấy tông thuốc trong bảng Delivery</t>
   </si>
   <si>
-    <t>UsedInThisMonth</t>
+    <t>txtClinic</t>
+  </si>
+  <si>
+    <t>TxtMonth</t>
+  </si>
+  <si>
+    <t>TxtYear</t>
+  </si>
+  <si>
+    <t>TxtNote</t>
+  </si>
+  <si>
+    <t>TxtStatus</t>
+  </si>
+  <si>
+    <t>TxtApprover</t>
+  </si>
+  <si>
+    <t>TxtApprovedDate</t>
+  </si>
+  <si>
+    <t>BtnSave</t>
+  </si>
+  <si>
+    <t>BtnCancel</t>
+  </si>
+  <si>
+    <t>BtnDelete</t>
+  </si>
+  <si>
+    <t>grdNo</t>
+  </si>
+  <si>
+    <t>grdMedicine</t>
+  </si>
+  <si>
+    <t>grdLastMonthUsage</t>
+  </si>
+  <si>
+    <t>grdMonthUsage</t>
+  </si>
+  <si>
+    <t>grdInStock</t>
+  </si>
+  <si>
+    <t>grdRequire</t>
+  </si>
+  <si>
+    <t>Combobox</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>Button</t>
   </si>
 </sst>
 </file>
@@ -406,42 +457,562 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1113462</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>1198108</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>161357</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="2095500"/>
-          <a:ext cx="7704762" cy="4542857"/>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="7789408" cy="4542857"/>
+          <a:chOff x="0" y="2286000"/>
+          <a:chExt cx="7789408" cy="4542857"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="2286000"/>
+            <a:ext cx="7704762" cy="4542857"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="838200" y="2543175"/>
+            <a:ext cx="633635" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtDate</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2990850" y="2552700"/>
+            <a:ext cx="667875" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtClinic</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5562600" y="2552700"/>
+            <a:ext cx="752257" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtMonth</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6848475" y="2533650"/>
+            <a:ext cx="617477" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtYear</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="828675" y="2733675"/>
+            <a:ext cx="644664" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtNote</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5476875" y="2781300"/>
+            <a:ext cx="717953" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtStatus</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="819150" y="2962275"/>
+            <a:ext cx="923266" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtApproved</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3000375" y="2990850"/>
+            <a:ext cx="1195135" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtApprovedDate</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2438400" y="3933825"/>
+            <a:ext cx="893386" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>dbgPlanning</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="TextBox 11"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5943600" y="6524625"/>
+            <a:ext cx="628121" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtSave</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7048500" y="6515100"/>
+            <a:ext cx="740908" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TxtCancel</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1191,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,10 +1776,10 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,10 +1787,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1227,10 +1798,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1372,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,20 +1989,115 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Docs/List.xlsx
+++ b/trunk/Docs/List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="ReferenceList" sheetId="4" r:id="rId3"/>
     <sheet name="Medicine Planning" sheetId="3" r:id="rId4"/>
     <sheet name="Medicine Planning Detail" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -62,9 +63,6 @@
     <t>Lập dự trù</t>
   </si>
   <si>
-    <t>Lịch sử dự trù thuốc</t>
-  </si>
-  <si>
     <t>Xem chi tiết dự trù đã lập</t>
   </si>
   <si>
@@ -72,9 +70,6 @@
   </si>
   <si>
     <t>Duyệt dự trù</t>
-  </si>
-  <si>
-    <t>Danh sách dự trù đợi duyệt</t>
   </si>
   <si>
     <t>Kho</t>
@@ -302,13 +297,52 @@
   </si>
   <si>
     <t>Button</t>
+  </si>
+  <si>
+    <t>-Hiển thị số lượng thuốc và tồn kho hiện tại
+- Cho phép search theo tên thuốc
+- Hiển thị tồn kho tối thiểu (nếu nhỏ hơn tồn kho tối thiểu thì sẽ hiển thị màu vàng, số lượng bằng không thì hiển thị đỏ)
+-Cho phép chỉnh số lượng tồn kho tối thiểu</t>
+  </si>
+  <si>
+    <t>- List những danh sách xuất nhập kho theo khoảng ngày (range)</t>
+  </si>
+  <si>
+    <t>-Hiển thị chi tiết nhập kho</t>
+  </si>
+  <si>
+    <t>- Hiển thị form nhập kho</t>
+  </si>
+  <si>
+    <t>- Hiển thị form xuất kho</t>
+  </si>
+  <si>
+    <t>- Hiển thị danh sách dự trù</t>
+  </si>
+  <si>
+    <t>Lịch sử dự trù thuốc (Dành cho dược viên cơ sở)</t>
+  </si>
+  <si>
+    <t>Danh sách dự trù đợi duyệt(Dành cho quản lý trung tâm)</t>
+  </si>
+  <si>
+    <t>Báo cáo thuốc hỏng</t>
+  </si>
+  <si>
+    <t>Báo cáo tồn kho chi tiết</t>
+  </si>
+  <si>
+    <t>- Hiển thị chi tiết thuốc với số lượng đang tồn (lot no, ngày hết hạn)</t>
+  </si>
+  <si>
+    <t>http://vozforums.com/showthread.php?t=2065093&amp;page=1726</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +365,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +416,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -376,11 +431,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -393,10 +488,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1013,6 +1117,44 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1246795</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>18358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8582025"/>
+          <a:ext cx="7838095" cy="5533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1305,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,228 +1458,319 @@
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <v>50</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="12">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="12">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5</v>
-      </c>
+      <c r="E25" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="percent" val="$D$2"/>
         <cfvo type="percent" val="100"/>
@@ -1549,7 +1782,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="percent" val="100"/>
@@ -1561,7 +1794,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="percent" val="$D$2"/>
         <cfvo type="percent" val="$D$2"/>
@@ -1573,7 +1806,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1644,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,32 +1892,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1693,7 +1934,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,56 +1946,56 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="11"/>
+      <c r="A10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1762,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,13 +2014,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,10 +2028,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1836,19 +2077,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -1856,16 +2097,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1873,16 +2114,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1890,16 +2131,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -1907,19 +2148,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1945,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,144 +2205,156 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/Docs/List.xlsx
+++ b/trunk/Docs/List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="ReferenceList" sheetId="4" r:id="rId3"/>
     <sheet name="Medicine Planning" sheetId="3" r:id="rId4"/>
     <sheet name="Medicine Planning Detail" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="WareHouse" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -495,9 +495,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1149,6 +1149,49 @@
         <a:xfrm>
           <a:off x="0" y="8582025"/>
           <a:ext cx="7838095" cy="5533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236601</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>189595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="12190476" cy="7238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1879,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,10 +1942,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -1913,7 +1956,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1985,10 +2028,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -2186,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,12 +2392,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/Docs/List.xlsx
+++ b/trunk/Docs/List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>http://vozforums.com/showthread.php?t=2065093&amp;page=1726</t>
+  </si>
+  <si>
+    <t>Danh sách bệnh nhân chậm tái khám</t>
+  </si>
+  <si>
+    <t>- Lỗi khi insert theo phác dồ bị duplicate số lượng thuốc</t>
   </si>
 </sst>
 </file>
@@ -1490,9 +1496,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1545,8 +1551,8 @@
       <c r="D3" s="12">
         <v>15</v>
       </c>
-      <c r="E3" s="12">
-        <v>2</v>
+      <c r="E3" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1573,22 +1579,20 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="12">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="12">
         <v>5</v>
@@ -1599,7 +1603,7 @@
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="12">
         <v>5</v>
@@ -1608,35 +1612,35 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D9" s="12">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="12" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D10" s="12">
         <v>5</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="12">
         <v>5</v>
@@ -1647,7 +1651,7 @@
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="12">
         <v>5</v>
@@ -1658,120 +1662,120 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D13" s="12">
         <v>5</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="D14" s="12">
         <v>5</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="12">
         <v>5</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" s="12">
         <v>5</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="12">
         <v>5</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="D19" s="12">
+        <v>5</v>
+      </c>
       <c r="E19" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
-      <c r="E21" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="C22" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
@@ -1782,7 +1786,7 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
@@ -1793,7 +1797,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="12">
         <v>5</v>
@@ -1804,12 +1808,23 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="12">
         <v>5</v>
       </c>
       <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="12">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
@@ -1923,7 +1938,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -2394,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
